--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F63C7B-A177-4036-AE6B-23441CAC97D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A408A8-7EF1-4CC1-A70C-49CDCD1CD6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>태스크</t>
   </si>
@@ -330,6 +330,10 @@
   <si>
     <t>작업 중</t>
   </si>
+  <si>
+    <t>2022.11.09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -415,6 +419,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -752,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -913,6 +925,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,12 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,7 +1293,7 @@
   <dimension ref="A1:AK819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.95" customHeight="1"/>
@@ -1293,68 +1308,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
     </row>
     <row r="2" spans="1:37" ht="16.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="61"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2">
         <v>1</v>
       </c>
@@ -1464,7 +1479,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="74"/>
+      <c r="N3" s="60"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -1513,7 +1528,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="61" t="s">
         <v>61</v>
       </c>
       <c r="O4" s="20"/>
@@ -1605,11 +1620,13 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="75" t="s">
+      <c r="N6" s="62"/>
+      <c r="O6" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="20"/>
+      <c r="P6" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -1644,7 +1661,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18">
@@ -1656,13 +1673,15 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="20"/>
+      <c r="P7" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
@@ -6183,7 +6202,7 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C58" xr:uid="{E52B1908-56F0-494E-B59D-EEDF4D6F77A1}">
       <formula1>$A$75:$A$78</formula1>
     </dataValidation>
